--- a/car_df.xlsx
+++ b/car_df.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubdedubn-my.sharepoint.com/personal/23b9016_ubd_edu_bn/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8176B7DA-5414-45FC-96C1-06C1EAA404E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6D42630-04CF-4D2D-AD03-64F3CA8641C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B404BD2C-D7E2-427E-953C-693BBA5FDD2D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="178">
   <si>
     <t>PRICE($)</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>Ford EcoSport</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Midnight Sky</t>
@@ -1589,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68C7243-CA27-4B48-BC27-E0583FA30075}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2250,11 +2247,11 @@
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="11">
+        <v>193836</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="E33" s="11">
         <v>2016</v>
@@ -2268,7 +2265,7 @@
         <v>12800</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="11">
         <v>152504</v>
@@ -2308,7 +2305,7 @@
         <v>12800</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11">
         <v>149747</v>
@@ -2328,7 +2325,7 @@
         <v>13500</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="11">
         <v>102315</v>
@@ -2348,7 +2345,7 @@
         <v>13500</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="11">
         <v>40923</v>
@@ -2368,7 +2365,7 @@
         <v>13800</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="11">
         <v>235856</v>
@@ -2388,13 +2385,13 @@
         <v>13800</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="11">
         <v>215283</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" s="11">
         <v>2008</v>
@@ -2448,7 +2445,7 @@
         <v>13800</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="11">
         <v>97895</v>
@@ -2474,7 +2471,7 @@
         <v>224954</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E44" s="11">
         <v>2014</v>
@@ -2488,7 +2485,7 @@
         <v>14500</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="11">
         <v>199873</v>
@@ -2508,7 +2505,7 @@
         <v>14500</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="11">
         <v>104429</v>
@@ -2528,13 +2525,13 @@
         <v>14500</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="11">
         <v>149829</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" s="11">
         <v>2017</v>
@@ -2548,7 +2545,7 @@
         <v>14500</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="11">
         <v>180386</v>
@@ -2574,7 +2571,7 @@
         <v>201767</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49" s="11">
         <v>2013</v>
@@ -2588,13 +2585,13 @@
         <v>14800</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="11">
         <v>129813</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E50" s="11">
         <v>2012</v>
@@ -2608,7 +2605,7 @@
         <v>14800</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="11">
         <v>145635</v>
@@ -2628,7 +2625,7 @@
         <v>14800</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="11">
         <v>92580</v>
@@ -2648,7 +2645,7 @@
         <v>14800</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="11">
         <v>146638</v>
@@ -2668,7 +2665,7 @@
         <v>14800</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="11">
         <v>128976</v>
@@ -2688,7 +2685,7 @@
         <v>14800</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="11">
         <v>215408</v>
@@ -2708,13 +2705,13 @@
         <v>14800</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C56" s="11">
         <v>127021</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E56" s="11">
         <v>2020</v>
@@ -2728,7 +2725,7 @@
         <v>15500</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57" s="11">
         <v>158595</v>
@@ -2754,7 +2751,7 @@
         <v>255487</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E58" s="11">
         <v>2015</v>
@@ -2768,13 +2765,13 @@
         <v>15500</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" s="11">
         <v>153139</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E59" s="11">
         <v>2017</v>
@@ -2788,7 +2785,7 @@
         <v>15800</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="11">
         <v>76117</v>
@@ -2808,7 +2805,7 @@
         <v>15800</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" s="11">
         <v>238784</v>
@@ -2834,7 +2831,7 @@
         <v>127236</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E62" s="11">
         <v>2020</v>
@@ -2848,7 +2845,7 @@
         <v>15800</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C63" s="11">
         <v>101873</v>
@@ -2868,13 +2865,13 @@
         <v>15800</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64" s="11">
         <v>181957</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E64" s="11">
         <v>2013</v>
@@ -2908,13 +2905,13 @@
         <v>15800</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="11">
         <v>73219</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E66" s="11">
         <v>2016</v>
@@ -2928,7 +2925,7 @@
         <v>15800</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="11">
         <v>185073</v>
@@ -2948,7 +2945,7 @@
         <v>16500</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C68" s="11">
         <v>158160</v>
@@ -2968,7 +2965,7 @@
         <v>16800</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" s="11">
         <v>127223</v>
@@ -2988,7 +2985,7 @@
         <v>16800</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" s="11">
         <v>219301</v>
@@ -3008,7 +3005,7 @@
         <v>16800</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" s="11">
         <v>192437</v>
@@ -3028,7 +3025,7 @@
         <v>16800</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72" s="11">
         <v>198816</v>
@@ -3068,7 +3065,7 @@
         <v>16800</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" s="11">
         <v>87645</v>
@@ -3088,7 +3085,7 @@
         <v>16800</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C75" s="11">
         <v>141957</v>
@@ -3108,7 +3105,7 @@
         <v>16800</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" s="11">
         <v>141932</v>
@@ -3128,7 +3125,7 @@
         <v>17500</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C77" s="11">
         <v>140052</v>
@@ -3148,7 +3145,7 @@
         <v>17800</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78" s="11">
         <v>118887</v>
@@ -3168,7 +3165,7 @@
         <v>17800</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C79" s="11">
         <v>154704</v>
@@ -3188,7 +3185,7 @@
         <v>17800</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80" s="11">
         <v>70762</v>
@@ -3208,7 +3205,7 @@
         <v>17800</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81" s="11">
         <v>113075</v>
@@ -3228,7 +3225,7 @@
         <v>17800</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C82" s="11">
         <v>142917</v>
@@ -3248,7 +3245,7 @@
         <v>18500</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83" s="11">
         <v>111931</v>
@@ -3268,7 +3265,7 @@
         <v>18500</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C84" s="11">
         <v>132280</v>
@@ -3288,7 +3285,7 @@
         <v>18500</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C85" s="11">
         <v>93749</v>
@@ -3308,7 +3305,7 @@
         <v>18500</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C86" s="11">
         <v>220744</v>
@@ -3328,7 +3325,7 @@
         <v>18500</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C87" s="11">
         <v>138874</v>
@@ -3348,13 +3345,13 @@
         <v>18800</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88" s="11">
         <v>139195</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E88" s="11">
         <v>2015</v>
@@ -3368,13 +3365,13 @@
         <v>18800</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" s="11">
         <v>143556</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E89" s="11">
         <v>2019</v>
@@ -3388,7 +3385,7 @@
         <v>18800</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C90" s="11">
         <v>268274</v>
@@ -3428,7 +3425,7 @@
         <v>18800</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92" s="11">
         <v>69588</v>
@@ -3448,7 +3445,7 @@
         <v>18800</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="11">
         <v>143393</v>
@@ -3468,7 +3465,7 @@
         <v>18800</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" s="11">
         <v>181240</v>
@@ -3488,19 +3485,19 @@
         <v>18800</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95" s="11">
         <v>94058</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E95" s="11">
         <v>2015</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3508,7 +3505,7 @@
         <v>19500</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C96" s="11">
         <v>126519</v>
@@ -3528,7 +3525,7 @@
         <v>19800</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97" s="11">
         <v>113774</v>
@@ -3548,13 +3545,13 @@
         <v>19800</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C98" s="11">
         <v>148680</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E98" s="11">
         <v>2013</v>
@@ -3568,7 +3565,7 @@
         <v>19800</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C99" s="11">
         <v>148106</v>
@@ -3588,7 +3585,7 @@
         <v>19800</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100" s="11">
         <v>111608</v>
@@ -3608,7 +3605,7 @@
         <v>19800</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C101" s="11">
         <v>206726</v>
@@ -3628,7 +3625,7 @@
         <v>19800</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C102" s="11">
         <v>160431</v>
@@ -3648,7 +3645,7 @@
         <v>19800</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103" s="11">
         <v>136953</v>
@@ -3668,7 +3665,7 @@
         <v>19800</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C104" s="11">
         <v>131209</v>
@@ -3688,13 +3685,13 @@
         <v>19800</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C105" s="11">
         <v>166893</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E105" s="11">
         <v>2016</v>
@@ -3708,7 +3705,7 @@
         <v>19800</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C106" s="11">
         <v>39193</v>
@@ -3728,7 +3725,7 @@
         <v>19800</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C107" s="11">
         <v>214655</v>
@@ -3748,7 +3745,7 @@
         <v>19800</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C108" s="11">
         <v>231431</v>
@@ -3768,7 +3765,7 @@
         <v>19800</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C109" s="11">
         <v>114006</v>
@@ -3788,7 +3785,7 @@
         <v>19800</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C110" s="11">
         <v>80895</v>
@@ -3808,7 +3805,7 @@
         <v>20800</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C111" s="11">
         <v>167204</v>
@@ -3828,7 +3825,7 @@
         <v>20800</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C112" s="11">
         <v>162238</v>
@@ -3848,7 +3845,7 @@
         <v>20800</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C113" s="11">
         <v>59467</v>
@@ -3868,13 +3865,13 @@
         <v>20800</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C114" s="11">
         <v>135282</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E114" s="11">
         <v>2013</v>
@@ -3888,13 +3885,13 @@
         <v>20800</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C115" s="11">
         <v>139635</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E115" s="11">
         <v>1999</v>
@@ -3908,7 +3905,7 @@
         <v>21800</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C116" s="11">
         <v>107582</v>
@@ -3928,7 +3925,7 @@
         <v>21800</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C117" s="11">
         <v>97039</v>
@@ -3948,7 +3945,7 @@
         <v>21800</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C118" s="11">
         <v>210351</v>
@@ -3968,7 +3965,7 @@
         <v>21800</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C119" s="11">
         <v>187114</v>
@@ -3988,7 +3985,7 @@
         <v>21800</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C120" s="11">
         <v>223021</v>
@@ -4008,13 +4005,13 @@
         <v>21800</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C121" s="11">
         <v>262120</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E121" s="11">
         <v>2019</v>
@@ -4028,7 +4025,7 @@
         <v>21800</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C122" s="11">
         <v>108405</v>
@@ -4048,7 +4045,7 @@
         <v>22800</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C123" s="11">
         <v>151229</v>
@@ -4068,13 +4065,13 @@
         <v>22800</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C124" s="11">
         <v>53721</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E124" s="11">
         <v>2021</v>
@@ -4088,7 +4085,7 @@
         <v>22800</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C125" s="11">
         <v>139910</v>
@@ -4108,7 +4105,7 @@
         <v>22800</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C126" s="11">
         <v>90564</v>
@@ -4128,7 +4125,7 @@
         <v>22800</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C127" s="11">
         <v>13195</v>
@@ -4148,13 +4145,13 @@
         <v>22800</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C128" s="11">
         <v>118228</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E128" s="11">
         <v>2014</v>
@@ -4168,7 +4165,7 @@
         <v>22800</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C129" s="11">
         <v>46626</v>
@@ -4188,13 +4185,13 @@
         <v>23800</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C130" s="11">
         <v>109596</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E130" s="11">
         <v>2021</v>
@@ -4208,13 +4205,13 @@
         <v>23800</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C131" s="11">
         <v>38045</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E131" s="11">
         <v>2020</v>
@@ -4228,7 +4225,7 @@
         <v>23800</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C132" s="11">
         <v>88131</v>
@@ -4248,7 +4245,7 @@
         <v>23800</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C133" s="11">
         <v>105407</v>
@@ -4268,7 +4265,7 @@
         <v>23800</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C134" s="11">
         <v>207168</v>
@@ -4288,13 +4285,13 @@
         <v>23800</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C135" s="11">
         <v>95967</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E135" s="11">
         <v>2019</v>
@@ -4308,7 +4305,7 @@
         <v>23800</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C136" s="11">
         <v>96602</v>
@@ -4328,7 +4325,7 @@
         <v>23800</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C137" s="11">
         <v>109722</v>
@@ -4348,7 +4345,7 @@
         <v>23800</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C138" s="11">
         <v>161543</v>
@@ -4368,7 +4365,7 @@
         <v>24800</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C139" s="11">
         <v>59953</v>
@@ -4388,7 +4385,7 @@
         <v>24800</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C140" s="11">
         <v>69054</v>
@@ -4408,7 +4405,7 @@
         <v>24800</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C141" s="11">
         <v>83778</v>
@@ -4428,7 +4425,7 @@
         <v>24800</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C142" s="11">
         <v>179938</v>
@@ -4448,13 +4445,13 @@
         <v>24800</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C143" s="11">
         <v>167006</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E143" s="11">
         <v>2012</v>
@@ -4468,7 +4465,7 @@
         <v>24800</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C144" s="11">
         <v>31041</v>
@@ -4488,7 +4485,7 @@
         <v>25000</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C145" s="11">
         <v>140830</v>
@@ -4508,7 +4505,7 @@
         <v>25800</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C146" s="11">
         <v>47771</v>
@@ -4528,7 +4525,7 @@
         <v>25800</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C147" s="11">
         <v>87719</v>
@@ -4548,7 +4545,7 @@
         <v>25800</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C148" s="11">
         <v>130594</v>
@@ -4568,7 +4565,7 @@
         <v>25800</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C149" s="11">
         <v>98344</v>
@@ -4588,13 +4585,13 @@
         <v>25800</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C150" s="11">
         <v>127232</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E150" s="11">
         <v>2014</v>
@@ -4608,7 +4605,7 @@
         <v>25800</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C151" s="11">
         <v>97382</v>
@@ -4628,13 +4625,13 @@
         <v>25800</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C152" s="11">
         <v>53695</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E152" s="11">
         <v>2020</v>
@@ -4648,7 +4645,7 @@
         <v>25800</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C153" s="11">
         <v>187454</v>
@@ -4668,7 +4665,7 @@
         <v>26800</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C154" s="11">
         <v>105380</v>
@@ -4688,13 +4685,13 @@
         <v>26800</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C155" s="11">
         <v>104552</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E155" s="11">
         <v>2019</v>
@@ -4708,7 +4705,7 @@
         <v>27800</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C156" s="11">
         <v>143163</v>
@@ -4728,7 +4725,7 @@
         <v>28800</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C157" s="11">
         <v>140710</v>
@@ -4748,13 +4745,13 @@
         <v>28800</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C158" s="11">
         <v>87909</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E158" s="11">
         <v>2016</v>
@@ -4768,7 +4765,7 @@
         <v>28800</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C159" s="11">
         <v>73096</v>
@@ -4788,7 +4785,7 @@
         <v>28800</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C160" s="11">
         <v>287814</v>
@@ -4808,7 +4805,7 @@
         <v>28800</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C161" s="11">
         <v>209901</v>
@@ -4828,13 +4825,13 @@
         <v>28800</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C162" s="11">
         <v>156412</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E162" s="11">
         <v>2014</v>
@@ -4848,13 +4845,13 @@
         <v>28800</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C163" s="11">
         <v>151478</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E163" s="11">
         <v>2016</v>
@@ -4868,7 +4865,7 @@
         <v>28800</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C164" s="11">
         <v>174340</v>
@@ -4888,7 +4885,7 @@
         <v>28800</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C165" s="11">
         <v>123398</v>
@@ -4908,7 +4905,7 @@
         <v>28800</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C166" s="11">
         <v>79412</v>
@@ -4928,7 +4925,7 @@
         <v>29800</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C167" s="11">
         <v>208218</v>
@@ -4948,7 +4945,7 @@
         <v>29800</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C168" s="11">
         <v>34156</v>
@@ -4968,7 +4965,7 @@
         <v>29800</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C169" s="11">
         <v>189859</v>
@@ -4988,7 +4985,7 @@
         <v>29800</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C170" s="11">
         <v>85336</v>
@@ -5008,7 +5005,7 @@
         <v>29800</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C171" s="11">
         <v>172982</v>
@@ -5028,7 +5025,7 @@
         <v>29800</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C172" s="11">
         <v>120696</v>
@@ -5040,7 +5037,7 @@
         <v>2015</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5048,7 +5045,7 @@
         <v>30800</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C173" s="11">
         <v>255854</v>
@@ -5068,7 +5065,7 @@
         <v>32800</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C174" s="11">
         <v>90919</v>
@@ -5088,7 +5085,7 @@
         <v>32800</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C175" s="11">
         <v>27498</v>
@@ -5108,13 +5105,13 @@
         <v>33800</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C176" s="11">
         <v>91390</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E176" s="11">
         <v>2020</v>
@@ -5128,7 +5125,7 @@
         <v>33800</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C177" s="11">
         <v>54830</v>
@@ -5148,7 +5145,7 @@
         <v>33800</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C178" s="11">
         <v>120099</v>
@@ -5168,13 +5165,13 @@
         <v>33800</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C179" s="11">
         <v>83461</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E179" s="11">
         <v>2016</v>
@@ -5188,7 +5185,7 @@
         <v>33800</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C180" s="11">
         <v>127711</v>
@@ -5208,13 +5205,13 @@
         <v>33800</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C181" s="11">
         <v>68245</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E181" s="11">
         <v>2015</v>
@@ -5228,13 +5225,13 @@
         <v>34800</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C182" s="11">
         <v>60366</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E182" s="11">
         <v>2020</v>
@@ -5248,7 +5245,7 @@
         <v>35800</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C183" s="11">
         <v>216646</v>
@@ -5268,7 +5265,7 @@
         <v>35800</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C184" s="11">
         <v>75327</v>
@@ -5288,13 +5285,13 @@
         <v>35800</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C185" s="11">
         <v>140583</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E185" s="11">
         <v>2014</v>
@@ -5308,7 +5305,7 @@
         <v>35800</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C186" s="11">
         <v>156941</v>
@@ -5328,7 +5325,7 @@
         <v>36800</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C187" s="11">
         <v>142961</v>
@@ -5348,13 +5345,13 @@
         <v>36800</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C188" s="11">
         <v>212907</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E188" s="11">
         <v>2016</v>
@@ -5368,7 +5365,7 @@
         <v>36800</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C189" s="11">
         <v>187494</v>
@@ -5388,7 +5385,7 @@
         <v>38500</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C190" s="11">
         <v>111883</v>
@@ -5408,7 +5405,7 @@
         <v>39800</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C191" s="11">
         <v>145084</v>
@@ -5428,7 +5425,7 @@
         <v>42800</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C192" s="11">
         <v>110414</v>
@@ -5448,7 +5445,7 @@
         <v>48800</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C193" s="11">
         <v>57540</v>
@@ -5468,7 +5465,7 @@
         <v>49800</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C194" s="11">
         <v>67843</v>
@@ -5488,13 +5485,13 @@
         <v>49800</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C195" s="11">
         <v>75041</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E195" s="11">
         <v>2016</v>
@@ -5508,13 +5505,13 @@
         <v>54800</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C196" s="11">
         <v>88495</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E196" s="11">
         <v>2021</v>
@@ -5528,7 +5525,7 @@
         <v>58800</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C197" s="11">
         <v>95180</v>
@@ -5548,13 +5545,13 @@
         <v>59800</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C198" s="11">
         <v>86165</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E198" s="11">
         <v>2021</v>
@@ -5568,7 +5565,7 @@
         <v>61800</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C199" s="11">
         <v>88441</v>
@@ -5588,13 +5585,13 @@
         <v>65800</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C200" s="11">
         <v>24525</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E200" s="11">
         <v>2023</v>
@@ -5608,7 +5605,7 @@
         <v>68800</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C201" s="12">
         <v>84483</v>

--- a/car_df.xlsx
+++ b/car_df.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubdedubn-my.sharepoint.com/personal/23b9016_ubd_edu_bn/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8176B7DA-5414-45FC-96C1-06C1EAA404E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="8_{0E83AAD9-9A93-40DC-A4A9-C5AC061ADADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EBF7DD8-EB04-4337-94FF-7C1D46AA700B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B404BD2C-D7E2-427E-953C-693BBA5FDD2D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="178">
   <si>
     <t>PRICE($)</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>Ford EcoSport</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Midnight Sky</t>
@@ -1589,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68C7243-CA27-4B48-BC27-E0583FA30075}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2250,11 +2247,11 @@
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="11">
+        <v>193836</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="E33" s="11">
         <v>2016</v>
@@ -2268,7 +2265,7 @@
         <v>12800</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="11">
         <v>152504</v>
@@ -2308,7 +2305,7 @@
         <v>12800</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11">
         <v>149747</v>
@@ -2328,7 +2325,7 @@
         <v>13500</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="11">
         <v>102315</v>
@@ -2348,7 +2345,7 @@
         <v>13500</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="11">
         <v>40923</v>
@@ -2368,7 +2365,7 @@
         <v>13800</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="11">
         <v>235856</v>
@@ -2388,13 +2385,13 @@
         <v>13800</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="11">
         <v>215283</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" s="11">
         <v>2008</v>
@@ -2448,7 +2445,7 @@
         <v>13800</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="11">
         <v>97895</v>
@@ -2474,7 +2471,7 @@
         <v>224954</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E44" s="11">
         <v>2014</v>
@@ -2488,7 +2485,7 @@
         <v>14500</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="11">
         <v>199873</v>
@@ -2508,7 +2505,7 @@
         <v>14500</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="11">
         <v>104429</v>
@@ -2528,13 +2525,13 @@
         <v>14500</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="11">
         <v>149829</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" s="11">
         <v>2017</v>
@@ -2548,7 +2545,7 @@
         <v>14500</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="11">
         <v>180386</v>
@@ -2574,7 +2571,7 @@
         <v>201767</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49" s="11">
         <v>2013</v>
@@ -2588,13 +2585,13 @@
         <v>14800</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="11">
         <v>129813</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E50" s="11">
         <v>2012</v>
@@ -2608,7 +2605,7 @@
         <v>14800</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="11">
         <v>145635</v>
@@ -2628,7 +2625,7 @@
         <v>14800</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="11">
         <v>92580</v>
@@ -2648,7 +2645,7 @@
         <v>14800</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="11">
         <v>146638</v>
@@ -2668,7 +2665,7 @@
         <v>14800</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="11">
         <v>128976</v>
@@ -2688,7 +2685,7 @@
         <v>14800</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="11">
         <v>215408</v>
@@ -2708,13 +2705,13 @@
         <v>14800</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C56" s="11">
         <v>127021</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E56" s="11">
         <v>2020</v>
@@ -2728,7 +2725,7 @@
         <v>15500</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57" s="11">
         <v>158595</v>
@@ -2754,7 +2751,7 @@
         <v>255487</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E58" s="11">
         <v>2015</v>
@@ -2768,13 +2765,13 @@
         <v>15500</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" s="11">
         <v>153139</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E59" s="11">
         <v>2017</v>
@@ -2788,7 +2785,7 @@
         <v>15800</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="11">
         <v>76117</v>
@@ -2808,7 +2805,7 @@
         <v>15800</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" s="11">
         <v>238784</v>
@@ -2834,7 +2831,7 @@
         <v>127236</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E62" s="11">
         <v>2020</v>
@@ -2848,7 +2845,7 @@
         <v>15800</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C63" s="11">
         <v>101873</v>
@@ -2868,13 +2865,13 @@
         <v>15800</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64" s="11">
         <v>181957</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E64" s="11">
         <v>2013</v>
@@ -2908,13 +2905,13 @@
         <v>15800</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="11">
         <v>73219</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E66" s="11">
         <v>2016</v>
@@ -2928,7 +2925,7 @@
         <v>15800</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="11">
         <v>185073</v>
@@ -2948,7 +2945,7 @@
         <v>16500</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C68" s="11">
         <v>158160</v>
@@ -2968,7 +2965,7 @@
         <v>16800</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" s="11">
         <v>127223</v>
@@ -2988,7 +2985,7 @@
         <v>16800</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" s="11">
         <v>219301</v>
@@ -3008,7 +3005,7 @@
         <v>16800</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" s="11">
         <v>192437</v>
@@ -3028,7 +3025,7 @@
         <v>16800</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72" s="11">
         <v>198816</v>
@@ -3068,7 +3065,7 @@
         <v>16800</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" s="11">
         <v>87645</v>
@@ -3088,7 +3085,7 @@
         <v>16800</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C75" s="11">
         <v>141957</v>
@@ -3108,7 +3105,7 @@
         <v>16800</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" s="11">
         <v>141932</v>
@@ -3128,7 +3125,7 @@
         <v>17500</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C77" s="11">
         <v>140052</v>
@@ -3148,7 +3145,7 @@
         <v>17800</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78" s="11">
         <v>118887</v>
@@ -3168,7 +3165,7 @@
         <v>17800</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C79" s="11">
         <v>154704</v>
@@ -3188,7 +3185,7 @@
         <v>17800</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80" s="11">
         <v>70762</v>
@@ -3208,7 +3205,7 @@
         <v>17800</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81" s="11">
         <v>113075</v>
@@ -3228,7 +3225,7 @@
         <v>17800</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C82" s="11">
         <v>142917</v>
@@ -3248,7 +3245,7 @@
         <v>18500</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83" s="11">
         <v>111931</v>
@@ -3268,7 +3265,7 @@
         <v>18500</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C84" s="11">
         <v>132280</v>
@@ -3288,7 +3285,7 @@
         <v>18500</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C85" s="11">
         <v>93749</v>
@@ -3308,7 +3305,7 @@
         <v>18500</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C86" s="11">
         <v>220744</v>
@@ -3328,7 +3325,7 @@
         <v>18500</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C87" s="11">
         <v>138874</v>
@@ -3348,13 +3345,13 @@
         <v>18800</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88" s="11">
         <v>139195</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E88" s="11">
         <v>2015</v>
@@ -3368,13 +3365,13 @@
         <v>18800</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" s="11">
         <v>143556</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E89" s="11">
         <v>2019</v>
@@ -3388,7 +3385,7 @@
         <v>18800</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C90" s="11">
         <v>268274</v>
@@ -3428,7 +3425,7 @@
         <v>18800</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92" s="11">
         <v>69588</v>
@@ -3448,7 +3445,7 @@
         <v>18800</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="11">
         <v>143393</v>
@@ -3468,7 +3465,7 @@
         <v>18800</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" s="11">
         <v>181240</v>
@@ -3488,19 +3485,19 @@
         <v>18800</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95" s="11">
         <v>94058</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E95" s="11">
         <v>2015</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3508,7 +3505,7 @@
         <v>19500</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C96" s="11">
         <v>126519</v>
@@ -3528,7 +3525,7 @@
         <v>19800</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97" s="11">
         <v>113774</v>
@@ -3548,13 +3545,13 @@
         <v>19800</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C98" s="11">
         <v>148680</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E98" s="11">
         <v>2013</v>
@@ -3568,7 +3565,7 @@
         <v>19800</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C99" s="11">
         <v>148106</v>
@@ -3588,7 +3585,7 @@
         <v>19800</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100" s="11">
         <v>111608</v>
@@ -3608,7 +3605,7 @@
         <v>19800</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C101" s="11">
         <v>206726</v>
@@ -3628,7 +3625,7 @@
         <v>19800</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C102" s="11">
         <v>160431</v>
@@ -3648,7 +3645,7 @@
         <v>19800</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103" s="11">
         <v>136953</v>
@@ -3668,7 +3665,7 @@
         <v>19800</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C104" s="11">
         <v>131209</v>
@@ -3688,13 +3685,13 @@
         <v>19800</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C105" s="11">
         <v>166893</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E105" s="11">
         <v>2016</v>
@@ -3708,7 +3705,7 @@
         <v>19800</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C106" s="11">
         <v>39193</v>
@@ -3728,7 +3725,7 @@
         <v>19800</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C107" s="11">
         <v>214655</v>
@@ -3748,7 +3745,7 @@
         <v>19800</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C108" s="11">
         <v>231431</v>
@@ -3768,7 +3765,7 @@
         <v>19800</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C109" s="11">
         <v>114006</v>
@@ -3788,7 +3785,7 @@
         <v>19800</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C110" s="11">
         <v>80895</v>
@@ -3808,7 +3805,7 @@
         <v>20800</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C111" s="11">
         <v>167204</v>
@@ -3828,7 +3825,7 @@
         <v>20800</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C112" s="11">
         <v>162238</v>
@@ -3848,7 +3845,7 @@
         <v>20800</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C113" s="11">
         <v>59467</v>
@@ -3868,13 +3865,13 @@
         <v>20800</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C114" s="11">
         <v>135282</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E114" s="11">
         <v>2013</v>
@@ -3888,13 +3885,13 @@
         <v>20800</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C115" s="11">
         <v>139635</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E115" s="11">
         <v>1999</v>
@@ -3908,7 +3905,7 @@
         <v>21800</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C116" s="11">
         <v>107582</v>
@@ -3928,7 +3925,7 @@
         <v>21800</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C117" s="11">
         <v>97039</v>
@@ -3948,7 +3945,7 @@
         <v>21800</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C118" s="11">
         <v>210351</v>
@@ -3968,7 +3965,7 @@
         <v>21800</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C119" s="11">
         <v>187114</v>
@@ -3988,7 +3985,7 @@
         <v>21800</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C120" s="11">
         <v>223021</v>
@@ -4008,13 +4005,13 @@
         <v>21800</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C121" s="11">
         <v>262120</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E121" s="11">
         <v>2019</v>
@@ -4028,7 +4025,7 @@
         <v>21800</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C122" s="11">
         <v>108405</v>
@@ -4048,7 +4045,7 @@
         <v>22800</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C123" s="11">
         <v>151229</v>
@@ -4068,13 +4065,13 @@
         <v>22800</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C124" s="11">
         <v>53721</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E124" s="11">
         <v>2021</v>
@@ -4088,7 +4085,7 @@
         <v>22800</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C125" s="11">
         <v>139910</v>
@@ -4108,7 +4105,7 @@
         <v>22800</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C126" s="11">
         <v>90564</v>
@@ -4128,7 +4125,7 @@
         <v>22800</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C127" s="11">
         <v>13195</v>
@@ -4148,13 +4145,13 @@
         <v>22800</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C128" s="11">
         <v>118228</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E128" s="11">
         <v>2014</v>
@@ -4168,7 +4165,7 @@
         <v>22800</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C129" s="11">
         <v>46626</v>
@@ -4188,13 +4185,13 @@
         <v>23800</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C130" s="11">
         <v>109596</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E130" s="11">
         <v>2021</v>
@@ -4208,13 +4205,13 @@
         <v>23800</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C131" s="11">
         <v>38045</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E131" s="11">
         <v>2020</v>
@@ -4228,7 +4225,7 @@
         <v>23800</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C132" s="11">
         <v>88131</v>
@@ -4248,7 +4245,7 @@
         <v>23800</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C133" s="11">
         <v>105407</v>
@@ -4268,7 +4265,7 @@
         <v>23800</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C134" s="11">
         <v>207168</v>
@@ -4288,13 +4285,13 @@
         <v>23800</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C135" s="11">
         <v>95967</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E135" s="11">
         <v>2019</v>
@@ -4308,7 +4305,7 @@
         <v>23800</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C136" s="11">
         <v>96602</v>
@@ -4328,7 +4325,7 @@
         <v>23800</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C137" s="11">
         <v>109722</v>
@@ -4348,7 +4345,7 @@
         <v>23800</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C138" s="11">
         <v>161543</v>
@@ -4368,7 +4365,7 @@
         <v>24800</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C139" s="11">
         <v>59953</v>
@@ -4388,7 +4385,7 @@
         <v>24800</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C140" s="11">
         <v>69054</v>
@@ -4408,7 +4405,7 @@
         <v>24800</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C141" s="11">
         <v>83778</v>
@@ -4428,7 +4425,7 @@
         <v>24800</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C142" s="11">
         <v>179938</v>
@@ -4448,13 +4445,13 @@
         <v>24800</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C143" s="11">
         <v>167006</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E143" s="11">
         <v>2012</v>
@@ -4468,7 +4465,7 @@
         <v>24800</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C144" s="11">
         <v>31041</v>
@@ -4488,7 +4485,7 @@
         <v>25000</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C145" s="11">
         <v>140830</v>
@@ -4508,7 +4505,7 @@
         <v>25800</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C146" s="11">
         <v>47771</v>
@@ -4528,7 +4525,7 @@
         <v>25800</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C147" s="11">
         <v>87719</v>
@@ -4548,7 +4545,7 @@
         <v>25800</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C148" s="11">
         <v>130594</v>
@@ -4568,7 +4565,7 @@
         <v>25800</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C149" s="11">
         <v>98344</v>
@@ -4588,13 +4585,13 @@
         <v>25800</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C150" s="11">
         <v>127232</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E150" s="11">
         <v>2014</v>
@@ -4608,7 +4605,7 @@
         <v>25800</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C151" s="11">
         <v>97382</v>
@@ -4628,13 +4625,13 @@
         <v>25800</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C152" s="11">
         <v>53695</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E152" s="11">
         <v>2020</v>
@@ -4648,7 +4645,7 @@
         <v>25800</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C153" s="11">
         <v>187454</v>
@@ -4668,7 +4665,7 @@
         <v>26800</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C154" s="11">
         <v>105380</v>
@@ -4688,13 +4685,13 @@
         <v>26800</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C155" s="11">
         <v>104552</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E155" s="11">
         <v>2019</v>
@@ -4708,7 +4705,7 @@
         <v>27800</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C156" s="11">
         <v>143163</v>
@@ -4728,7 +4725,7 @@
         <v>28800</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C157" s="11">
         <v>140710</v>
@@ -4748,13 +4745,13 @@
         <v>28800</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C158" s="11">
         <v>87909</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E158" s="11">
         <v>2016</v>
@@ -4768,7 +4765,7 @@
         <v>28800</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C159" s="11">
         <v>73096</v>
@@ -4788,7 +4785,7 @@
         <v>28800</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C160" s="11">
         <v>287814</v>
@@ -4808,7 +4805,7 @@
         <v>28800</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C161" s="11">
         <v>209901</v>
@@ -4828,13 +4825,13 @@
         <v>28800</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C162" s="11">
         <v>156412</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E162" s="11">
         <v>2014</v>
@@ -4848,13 +4845,13 @@
         <v>28800</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C163" s="11">
         <v>151478</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E163" s="11">
         <v>2016</v>
@@ -4868,7 +4865,7 @@
         <v>28800</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C164" s="11">
         <v>174340</v>
@@ -4888,7 +4885,7 @@
         <v>28800</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C165" s="11">
         <v>123398</v>
@@ -4908,7 +4905,7 @@
         <v>28800</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C166" s="11">
         <v>79412</v>
@@ -4928,7 +4925,7 @@
         <v>29800</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C167" s="11">
         <v>208218</v>
@@ -4948,7 +4945,7 @@
         <v>29800</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C168" s="11">
         <v>34156</v>
@@ -4968,7 +4965,7 @@
         <v>29800</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C169" s="11">
         <v>189859</v>
@@ -4988,7 +4985,7 @@
         <v>29800</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C170" s="11">
         <v>85336</v>
@@ -5008,7 +5005,7 @@
         <v>29800</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C171" s="11">
         <v>172982</v>
@@ -5028,7 +5025,7 @@
         <v>29800</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C172" s="11">
         <v>120696</v>
@@ -5040,7 +5037,7 @@
         <v>2015</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5048,7 +5045,7 @@
         <v>30800</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C173" s="11">
         <v>255854</v>
@@ -5068,7 +5065,7 @@
         <v>32800</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C174" s="11">
         <v>90919</v>
@@ -5088,7 +5085,7 @@
         <v>32800</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C175" s="11">
         <v>27498</v>
@@ -5108,13 +5105,13 @@
         <v>33800</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C176" s="11">
         <v>91390</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E176" s="11">
         <v>2020</v>
@@ -5128,7 +5125,7 @@
         <v>33800</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C177" s="11">
         <v>54830</v>
@@ -5148,7 +5145,7 @@
         <v>33800</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C178" s="11">
         <v>120099</v>
@@ -5168,13 +5165,13 @@
         <v>33800</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C179" s="11">
         <v>83461</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E179" s="11">
         <v>2016</v>
@@ -5188,7 +5185,7 @@
         <v>33800</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C180" s="11">
         <v>127711</v>
@@ -5208,13 +5205,13 @@
         <v>33800</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C181" s="11">
         <v>68245</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E181" s="11">
         <v>2015</v>
@@ -5228,13 +5225,13 @@
         <v>34800</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C182" s="11">
         <v>60366</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E182" s="11">
         <v>2020</v>
@@ -5248,7 +5245,7 @@
         <v>35800</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C183" s="11">
         <v>216646</v>
@@ -5268,7 +5265,7 @@
         <v>35800</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C184" s="11">
         <v>75327</v>
@@ -5288,13 +5285,13 @@
         <v>35800</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C185" s="11">
         <v>140583</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E185" s="11">
         <v>2014</v>
@@ -5308,7 +5305,7 @@
         <v>35800</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C186" s="11">
         <v>156941</v>
@@ -5328,7 +5325,7 @@
         <v>36800</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C187" s="11">
         <v>142961</v>
@@ -5348,13 +5345,13 @@
         <v>36800</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C188" s="11">
         <v>212907</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E188" s="11">
         <v>2016</v>
@@ -5368,7 +5365,7 @@
         <v>36800</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C189" s="11">
         <v>187494</v>
@@ -5388,7 +5385,7 @@
         <v>38500</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C190" s="11">
         <v>111883</v>
@@ -5408,7 +5405,7 @@
         <v>39800</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C191" s="11">
         <v>145084</v>
@@ -5428,7 +5425,7 @@
         <v>42800</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C192" s="11">
         <v>110414</v>
@@ -5448,7 +5445,7 @@
         <v>48800</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C193" s="11">
         <v>57540</v>
@@ -5468,7 +5465,7 @@
         <v>49800</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C194" s="11">
         <v>67843</v>
@@ -5488,13 +5485,13 @@
         <v>49800</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C195" s="11">
         <v>75041</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E195" s="11">
         <v>2016</v>
@@ -5508,13 +5505,13 @@
         <v>54800</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C196" s="11">
         <v>88495</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E196" s="11">
         <v>2021</v>
@@ -5528,7 +5525,7 @@
         <v>58800</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C197" s="11">
         <v>95180</v>
@@ -5548,13 +5545,13 @@
         <v>59800</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C198" s="11">
         <v>86165</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E198" s="11">
         <v>2021</v>
@@ -5568,7 +5565,7 @@
         <v>61800</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C199" s="11">
         <v>88441</v>
@@ -5588,13 +5585,13 @@
         <v>65800</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C200" s="11">
         <v>24525</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E200" s="11">
         <v>2023</v>
@@ -5608,7 +5605,7 @@
         <v>68800</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C201" s="12">
         <v>84483</v>
